--- a/pjets/expdata/20005.xlsx
+++ b/pjets/expdata/20005.xlsx
@@ -1,131 +1,453 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yiyu/Google Drive/ing/jefferson lab/scholarship/monte carlo/code/fitpack_old/database/pjet/expdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA648CA-1E48-EB4B-9EFF-2BF98AFE2639}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="25600" windowHeight="14900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+  <si>
+    <t>idx</t>
+  </si>
   <si>
     <t>col</t>
   </si>
   <si>
+    <t>particles-in</t>
+  </si>
+  <si>
     <t>RS</t>
   </si>
   <si>
+    <t>pt-min</t>
+  </si>
+  <si>
+    <t>pt-max</t>
+  </si>
+  <si>
     <t>pT</t>
   </si>
   <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>eta-abs-min</t>
+  </si>
+  <si>
+    <t>eta-abs-max</t>
+  </si>
+  <si>
+    <t>cone-radius</t>
+  </si>
+  <si>
     <t>obs</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>tau</t>
-  </si>
-  <si>
-    <t>idx</t>
-  </si>
-  <si>
     <t>stat_u</t>
   </si>
   <si>
+    <t>%-pt-scale_c</t>
+  </si>
+  <si>
+    <t>%-beam-polarization_c</t>
+  </si>
+  <si>
+    <t>phenix</t>
+  </si>
+  <si>
     <t>pp</t>
   </si>
   <si>
     <t>&lt;a_ll&gt;</t>
-  </si>
-  <si>
-    <t>cone_radius</t>
-  </si>
-  <si>
-    <t>pt_max</t>
-  </si>
-  <si>
-    <t>pt_min</t>
-  </si>
-  <si>
-    <t>particles_in</t>
-  </si>
-  <si>
-    <t>eta_abs_min</t>
-  </si>
-  <si>
-    <t>eta_abs_max</t>
-  </si>
-  <si>
-    <t>phenix</t>
-  </si>
-  <si>
-    <t>pt-scale_c</t>
-  </si>
-  <si>
-    <t>beam-polarization_c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="17"/>
       <color rgb="FF000000"/>
       <name val="Gabriola"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Gabriola"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color rgb="FFFF0000"/>
-      <name val="Gabriola"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="26"/>
       <name val="Gabriola"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -133,11 +455,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -145,21 +709,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -208,7 +813,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -241,26 +846,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -293,23 +881,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,107 +1022,99 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.71120689655172" defaultRowHeight="24.4"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="10.28515625" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="1026" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.2844827586207" customWidth="1"/>
+    <col min="3" max="3" width="13.8534482758621" customWidth="1"/>
+    <col min="4" max="8" width="10.2844827586207" customWidth="1"/>
+    <col min="9" max="9" width="14.8534482758621" customWidth="1"/>
+    <col min="10" max="11" width="15.5689655172414" customWidth="1"/>
+    <col min="12" max="12" width="7.85344827586207" customWidth="1"/>
+    <col min="13" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="15.8620689655172" customWidth="1"/>
+    <col min="16" max="16" width="27.1379310344828" customWidth="1"/>
+    <col min="17" max="17" width="10.2844827586207" customWidth="1"/>
+    <col min="18" max="18" width="11.8534482758621" customWidth="1"/>
+    <col min="19" max="19" width="14.1422413793103" customWidth="1"/>
+    <col min="20" max="1024" width="10.2844827586207" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" ht="35.6" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" ht="35.6" spans="1:19">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>200</v>
@@ -567,7 +1130,7 @@
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H7" si="0">2*G2/D2</f>
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -579,13 +1142,13 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1">
-        <v>-6.9999999999999999E-4</v>
+        <v>-0.0007</v>
       </c>
       <c r="N2" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>0.0011</v>
       </c>
       <c r="O2" s="1">
         <v>10</v>
@@ -596,18 +1159,16 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
+    </row>
+    <row r="3" ht="35.6" spans="1:19">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>200</v>
@@ -623,7 +1184,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -635,13 +1196,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M3" s="1">
-        <v>3.8999999999999998E-3</v>
+        <v>0.0039</v>
       </c>
       <c r="N3" s="1">
-        <v>2.0999999999999999E-3</v>
+        <v>0.0021</v>
       </c>
       <c r="O3" s="1">
         <v>10</v>
@@ -652,10 +1213,8 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" ht="35.6" spans="1:19">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -663,7 +1222,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
@@ -679,7 +1238,7 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>4.4199999999999996E-2</v>
+        <v>0.0442</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -691,13 +1250,13 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M4" s="1">
-        <v>-1.4E-3</v>
+        <v>-0.0014</v>
       </c>
       <c r="N4" s="1">
-        <v>3.7000000000000002E-3</v>
+        <v>0.0037</v>
       </c>
       <c r="O4" s="1">
         <v>10</v>
@@ -708,10 +1267,8 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" ht="35.6" spans="1:19">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -719,7 +1276,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
@@ -735,7 +1292,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>5.4299999999999994E-2</v>
+        <v>0.0543</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -747,13 +1304,13 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M5" s="1">
-        <v>-5.0000000000000001E-4</v>
+        <v>-0.0005</v>
       </c>
       <c r="N5" s="1">
-        <v>5.8999999999999999E-3</v>
+        <v>0.0059</v>
       </c>
       <c r="O5" s="1">
         <v>10</v>
@@ -764,10 +1321,8 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" ht="35.6" spans="1:19">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -775,7 +1330,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>200</v>
@@ -791,7 +1346,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>6.4299999999999996E-2</v>
+        <v>0.0643</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -803,13 +1358,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M6" s="1">
-        <v>5.7999999999999996E-3</v>
+        <v>0.0058</v>
       </c>
       <c r="N6" s="1">
-        <v>8.8999999999999999E-3</v>
+        <v>0.0089</v>
       </c>
       <c r="O6" s="1">
         <v>10</v>
@@ -820,10 +1375,8 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" ht="35.6" spans="1:19">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -831,7 +1384,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>200</v>
@@ -847,7 +1400,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>7.4400000000000008E-2</v>
+        <v>0.0744</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -859,13 +1412,13 @@
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M7" s="1">
-        <v>3.3999999999999998E-3</v>
+        <v>0.0034</v>
       </c>
       <c r="N7" s="1">
-        <v>1.32E-2</v>
+        <v>0.0132</v>
       </c>
       <c r="O7" s="1">
         <v>10</v>
@@ -876,10 +1429,8 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" ht="35.6" spans="1:16">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -887,7 +1438,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>200</v>
@@ -899,11 +1450,11 @@
         <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>8.7899999999999991</v>
+        <v>8.79</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ref="H8:H9" si="1">2*G8/D8</f>
-        <v>8.7899999999999992E-2</v>
+        <v>0.0879</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -915,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M8" s="1">
-        <v>7.7000000000000002E-3</v>
+        <v>0.0077</v>
       </c>
       <c r="N8" s="1">
-        <v>1.52E-2</v>
+        <v>0.0152</v>
       </c>
       <c r="O8" s="1">
         <v>10</v>
@@ -930,7 +1481,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" ht="35.6" spans="1:16">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -938,7 +1489,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>200</v>
@@ -966,13 +1517,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M9" s="1">
-        <v>-1.8100000000000002E-2</v>
+        <v>-0.0181</v>
       </c>
       <c r="N9" s="1">
-        <v>2.8199999999999999E-2</v>
+        <v>0.0282</v>
       </c>
       <c r="O9" s="1">
         <v>10</v>
@@ -981,7 +1532,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" ht="35.6" spans="2:14">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -992,9 +1543,8 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" ht="35.6" spans="2:14">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1005,9 +1555,8 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" ht="35.6" spans="2:14">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1018,9 +1567,8 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" ht="35.6" spans="2:14">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1031,9 +1579,8 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" ht="35.6" spans="2:14">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1044,9 +1591,8 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" ht="35.6" spans="2:14">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1057,9 +1603,8 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" ht="51" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" ht="35.6" spans="2:14">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1070,9 +1615,8 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="2:15" ht="51" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" ht="35.6" spans="2:14">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1083,9 +1627,8 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="2:15" ht="51" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" ht="35.6" spans="2:14">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1096,9 +1639,8 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="2:15" ht="51" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" ht="35.6" spans="2:14">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1109,10 +1651,10 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/pjets/expdata/20005.xlsx
+++ b/pjets/expdata/20005.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" tabRatio="500"/>
+    <workbookView windowHeight="17880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>%-pt-scale_c</t>
   </si>
   <si>
-    <t>%-beam-polarization_c</t>
+    <t>%-norm_c</t>
   </si>
   <si>
     <t>phenix</t>
@@ -78,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -110,7 +110,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,6 +177,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -132,89 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -224,14 +239,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,14 +252,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -262,168 +262,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -431,18 +443,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +453,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,6 +491,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,23 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,166 +553,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,7 +1030,7 @@
   <sheetPr/>
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
@@ -1046,7 +1046,7 @@
     <col min="12" max="12" width="7.85344827586207" customWidth="1"/>
     <col min="13" max="14" width="17" customWidth="1"/>
     <col min="15" max="15" width="15.8620689655172" customWidth="1"/>
-    <col min="16" max="16" width="27.1379310344828" customWidth="1"/>
+    <col min="16" max="16" width="12.5862068965517" customWidth="1"/>
     <col min="17" max="17" width="10.2844827586207" customWidth="1"/>
     <col min="18" max="18" width="11.8534482758621" customWidth="1"/>
     <col min="19" max="19" width="14.1422413793103" customWidth="1"/>
@@ -1653,7 +1653,7 @@
       <c r="N19" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
